--- a/Projeto/part2/updateDatabase.xlsx
+++ b/Projeto/part2/updateDatabase.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="90">
   <si>
     <t>number</t>
   </si>
@@ -260,9 +260,6 @@
     <t>Pedro</t>
   </si>
   <si>
-    <t>Luís</t>
-  </si>
-  <si>
     <t>Maria</t>
   </si>
   <si>
@@ -291,6 +288,12 @@
   </si>
   <si>
     <t>C5555</t>
+  </si>
+  <si>
+    <t>2015-02-02 00:00:00'</t>
+  </si>
+  <si>
+    <t>2014-02-02 00:00:00'</t>
   </si>
 </sst>
 </file>
@@ -625,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AY37"/>
+  <dimension ref="B1:AY41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="Z16" workbookViewId="0">
+      <selection activeCell="AG34" sqref="AG34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1111,7 +1114,7 @@
         <v>59</v>
       </c>
       <c r="Q5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R5" t="s">
         <v>49</v>
@@ -1212,7 +1215,7 @@
         <v>944444444</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
         <v>49</v>
@@ -1221,7 +1224,7 @@
         <v>56</v>
       </c>
       <c r="M6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N6" t="s">
         <v>49</v>
@@ -1313,7 +1316,7 @@
         <v>555555555</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
         <v>34</v>
@@ -1325,7 +1328,7 @@
         <v>955555555</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
         <v>49</v>
@@ -1343,7 +1346,7 @@
         <v>58</v>
       </c>
       <c r="Q7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R7" t="s">
         <v>50</v>
@@ -1426,7 +1429,7 @@
         <v>666666666</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
         <v>36</v>
@@ -1483,7 +1486,7 @@
         <v>22</v>
       </c>
       <c r="AF8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG8" t="s">
         <v>49</v>
@@ -1536,7 +1539,7 @@
     </row>
     <row r="9" spans="2:51" x14ac:dyDescent="0.3">
       <c r="F9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G9">
         <v>977777777</v>
@@ -1587,7 +1590,7 @@
         <v>33</v>
       </c>
       <c r="AF9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG9" t="s">
         <v>49</v>
@@ -1640,7 +1643,7 @@
     </row>
     <row r="10" spans="2:51" x14ac:dyDescent="0.3">
       <c r="F10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G10">
         <v>988888888</v>
@@ -1655,7 +1658,7 @@
         <v>56</v>
       </c>
       <c r="M10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N10" t="s">
         <v>50</v>
@@ -1664,7 +1667,7 @@
         <v>59</v>
       </c>
       <c r="Q10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R10" t="s">
         <v>54</v>
@@ -1733,10 +1736,10 @@
         <v>72</v>
       </c>
       <c r="AW10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AX10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AY10" s="1" t="s">
         <v>39</v>
@@ -1744,13 +1747,13 @@
     </row>
     <row r="11" spans="2:51" x14ac:dyDescent="0.3">
       <c r="F11" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G11">
         <v>999999999</v>
       </c>
       <c r="I11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J11" t="s">
         <v>50</v>
@@ -1807,7 +1810,7 @@
         <v>444444444</v>
       </c>
       <c r="AN11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AP11" t="s">
         <v>69</v>
@@ -1821,25 +1824,25 @@
       <c r="AS11">
         <v>11111</v>
       </c>
-      <c r="AU11" s="2" t="s">
-        <v>67</v>
+      <c r="AU11" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="AV11" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="AW11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AX11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AY11" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="2:51" x14ac:dyDescent="0.3">
       <c r="I12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J12" t="s">
         <v>50</v>
@@ -1909,6 +1912,21 @@
       </c>
       <c r="AS12">
         <v>22222</v>
+      </c>
+      <c r="AU12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY12" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="2:51" x14ac:dyDescent="0.3">
@@ -1922,7 +1940,7 @@
         <v>56</v>
       </c>
       <c r="M13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N13" t="s">
         <v>54</v>
@@ -1949,7 +1967,7 @@
         <v>41</v>
       </c>
       <c r="AF13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG13" t="s">
         <v>50</v>
@@ -1983,6 +2001,21 @@
       </c>
       <c r="AS13">
         <v>33333</v>
+      </c>
+      <c r="AU13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AV13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY13" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="2:51" x14ac:dyDescent="0.3">
@@ -2014,7 +2047,7 @@
         <v>45</v>
       </c>
       <c r="AF14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG14" t="s">
         <v>50</v>
@@ -2024,6 +2057,21 @@
       </c>
       <c r="AI14">
         <v>11</v>
+      </c>
+      <c r="AU14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY14" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="2:51" x14ac:dyDescent="0.3">
@@ -2043,7 +2091,7 @@
         <v>65</v>
       </c>
       <c r="AA15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB15" t="s">
         <v>49</v>
@@ -2066,10 +2114,25 @@
       <c r="AI15">
         <v>43</v>
       </c>
+      <c r="AU15" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY15" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="16" spans="2:51" x14ac:dyDescent="0.3">
       <c r="I16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J16" t="s">
         <v>54</v>
@@ -2084,7 +2147,7 @@
         <v>65</v>
       </c>
       <c r="AA16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB16" t="s">
         <v>49</v>
@@ -2107,10 +2170,25 @@
       <c r="AI16">
         <v>65</v>
       </c>
-    </row>
-    <row r="17" spans="9:35" x14ac:dyDescent="0.3">
+      <c r="AU16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AV16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY16" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="9:51" x14ac:dyDescent="0.3">
       <c r="I17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J17" t="s">
         <v>54</v>
@@ -2125,7 +2203,7 @@
         <v>64</v>
       </c>
       <c r="AA17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB17" t="s">
         <v>49</v>
@@ -2148,8 +2226,23 @@
       <c r="AI17">
         <v>90</v>
       </c>
-    </row>
-    <row r="18" spans="9:35" x14ac:dyDescent="0.3">
+      <c r="AU17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY17" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="9:51" x14ac:dyDescent="0.3">
       <c r="X18" t="s">
         <v>65</v>
       </c>
@@ -2180,8 +2273,23 @@
       <c r="AI18">
         <v>66</v>
       </c>
-    </row>
-    <row r="19" spans="9:35" x14ac:dyDescent="0.3">
+      <c r="AU18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY18" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="9:51" x14ac:dyDescent="0.3">
       <c r="X19" t="s">
         <v>70</v>
       </c>
@@ -2201,7 +2309,7 @@
         <v>33</v>
       </c>
       <c r="AF19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG19" t="s">
         <v>54</v>
@@ -2212,8 +2320,29 @@
       <c r="AI19">
         <v>43</v>
       </c>
-    </row>
-    <row r="20" spans="9:35" x14ac:dyDescent="0.3">
+      <c r="AU19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY19" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="9:51" x14ac:dyDescent="0.3">
+      <c r="X20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>64</v>
+      </c>
       <c r="AA20" t="s">
         <v>44</v>
       </c>
@@ -2227,7 +2356,7 @@
         <v>11</v>
       </c>
       <c r="AF20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG20" t="s">
         <v>54</v>
@@ -2239,7 +2368,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="9:35" x14ac:dyDescent="0.3">
+    <row r="21" spans="9:51" x14ac:dyDescent="0.3">
       <c r="AA21" t="s">
         <v>48</v>
       </c>
@@ -2252,20 +2381,12 @@
       <c r="AD21">
         <v>10</v>
       </c>
-      <c r="AF21" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH21" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="AH21" s="2"/>
       <c r="AI21">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="9:35" x14ac:dyDescent="0.3">
+    <row r="22" spans="9:51" x14ac:dyDescent="0.3">
       <c r="AA22" t="s">
         <v>48</v>
       </c>
@@ -2279,7 +2400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="9:35" x14ac:dyDescent="0.3">
+    <row r="23" spans="9:51" x14ac:dyDescent="0.3">
       <c r="AA23" t="s">
         <v>48</v>
       </c>
@@ -2293,7 +2414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="9:35" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:51" x14ac:dyDescent="0.3">
       <c r="AA24" t="s">
         <v>48</v>
       </c>
@@ -2307,7 +2428,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="9:35" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:51" x14ac:dyDescent="0.3">
       <c r="AA25" t="s">
         <v>48</v>
       </c>
@@ -2321,7 +2442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="9:35" x14ac:dyDescent="0.3">
+    <row r="26" spans="9:51" x14ac:dyDescent="0.3">
       <c r="AA26" t="s">
         <v>53</v>
       </c>
@@ -2335,7 +2456,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="27" spans="9:35" x14ac:dyDescent="0.3">
+    <row r="27" spans="9:51" x14ac:dyDescent="0.3">
       <c r="AA27" t="s">
         <v>53</v>
       </c>
@@ -2348,8 +2469,17 @@
       <c r="AD27">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="9:35" x14ac:dyDescent="0.3">
+      <c r="AU27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="9:51" x14ac:dyDescent="0.3">
       <c r="AA28" t="s">
         <v>53</v>
       </c>
@@ -2362,10 +2492,19 @@
       <c r="AD28">
         <v>22</v>
       </c>
-    </row>
-    <row r="29" spans="9:35" x14ac:dyDescent="0.3">
+      <c r="AU28" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="9:51" x14ac:dyDescent="0.3">
       <c r="AA29" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AB29" t="s">
         <v>50</v>
@@ -2376,10 +2515,19 @@
       <c r="AD29">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="9:35" x14ac:dyDescent="0.3">
+      <c r="AU29" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="9:51" x14ac:dyDescent="0.3">
       <c r="AA30" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AB30" t="s">
         <v>50</v>
@@ -2390,10 +2538,19 @@
       <c r="AD30">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="9:35" x14ac:dyDescent="0.3">
+      <c r="AU30" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="9:51" x14ac:dyDescent="0.3">
       <c r="AA31" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AB31" t="s">
         <v>50</v>
@@ -2404,8 +2561,17 @@
       <c r="AD31">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="9:35" x14ac:dyDescent="0.3">
+      <c r="AU31" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV31" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="9:51" x14ac:dyDescent="0.3">
       <c r="AA32" t="s">
         <v>45</v>
       </c>
@@ -2418,8 +2584,17 @@
       <c r="AD32">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AU32" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="27:49" x14ac:dyDescent="0.3">
       <c r="AA33" t="s">
         <v>45</v>
       </c>
@@ -2432,8 +2607,17 @@
       <c r="AD33">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AU33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="27:49" x14ac:dyDescent="0.3">
       <c r="AA34" t="s">
         <v>45</v>
       </c>
@@ -2446,8 +2630,17 @@
       <c r="AD34">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AU34" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="27:49" x14ac:dyDescent="0.3">
       <c r="AA35" t="s">
         <v>47</v>
       </c>
@@ -2460,8 +2653,17 @@
       <c r="AD35">
         <v>22</v>
       </c>
-    </row>
-    <row r="36" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AU35" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV35" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="27:49" x14ac:dyDescent="0.3">
       <c r="AA36" t="s">
         <v>47</v>
       </c>
@@ -2474,10 +2676,19 @@
       <c r="AD36">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AU36" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV36" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="27:49" x14ac:dyDescent="0.3">
       <c r="AA37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB37" t="s">
         <v>54</v>
@@ -2487,6 +2698,71 @@
       </c>
       <c r="AD37">
         <v>30</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="27:49" x14ac:dyDescent="0.3">
+      <c r="AA38" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC38" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD38">
+        <v>40</v>
+      </c>
+      <c r="AU38" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV38" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="27:49" x14ac:dyDescent="0.3">
+      <c r="AU39" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="27:49" x14ac:dyDescent="0.3">
+      <c r="AU40" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV40" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="27:49" x14ac:dyDescent="0.3">
+      <c r="AU41" t="s">
+        <v>87</v>
+      </c>
+      <c r="AV41" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW41" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2521,8 +2797,8 @@
     <hyperlink ref="AY7" r:id="rId14"/>
     <hyperlink ref="AY8" r:id="rId15"/>
     <hyperlink ref="AY9" r:id="rId16"/>
-    <hyperlink ref="AY10" r:id="rId17"/>
-    <hyperlink ref="AY11" r:id="rId18"/>
+    <hyperlink ref="AY11" r:id="rId17"/>
+    <hyperlink ref="AY12" r:id="rId18"/>
     <hyperlink ref="AY4" r:id="rId19"/>
     <hyperlink ref="AY5" r:id="rId20"/>
     <hyperlink ref="AY6" r:id="rId21"/>
@@ -2534,8 +2810,16 @@
     <hyperlink ref="AN13" r:id="rId27"/>
     <hyperlink ref="AN10" r:id="rId28"/>
     <hyperlink ref="AN12" r:id="rId29"/>
+    <hyperlink ref="AY10" r:id="rId30"/>
+    <hyperlink ref="AY16" r:id="rId31"/>
+    <hyperlink ref="AY14" r:id="rId32"/>
+    <hyperlink ref="AY15" r:id="rId33"/>
+    <hyperlink ref="AY17" r:id="rId34"/>
+    <hyperlink ref="AY19" r:id="rId35"/>
+    <hyperlink ref="AY18" r:id="rId36"/>
+    <hyperlink ref="AY13" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>
 </worksheet>
 </file>